--- a/bots/crawl_ch/output/toilet_coop_2022-08-18.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-18.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1613,50 +1613,50 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>6149220</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>72ST</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1676,60 +1676,60 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6149220</t>
+          <t>3640534</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>72ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-18 07:02:13</t>
+          <t>2022-08-18 20:58:33</t>
         </is>
       </c>
     </row>
